--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_极光组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -484,11 +484,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-请将模板文件放入目录  /var/lib/docker/contract/template/，新的模板请见“配置文件/合同/MogoBaoProtocolTemplet_JYC_MonthlyPay.vm”</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>新增聚有财月付合同模板</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -511,6 +506,26 @@
   <si>
     <t xml:space="preserve">
 请将模板文件放入目录  /var/lib/docker/contract/template/，新的模板请见“配置文件/合同模板/MogoBaoProtocolTemplet_JYC_MonthlyPay.vm”</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parnter APP</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renter PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partner PC</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1757,7 +1772,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1867,7 +1882,9 @@
       <c r="E2" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G2" s="37" t="s">
         <v>84</v>
       </c>
@@ -1921,7 +1938,9 @@
       <c r="E3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G3" s="37" t="s">
         <v>84</v>
       </c>
@@ -1975,7 +1994,9 @@
       <c r="E4" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G4" s="37" t="s">
         <v>84</v>
       </c>
@@ -2029,7 +2050,9 @@
       <c r="E5" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G5" s="37" t="s">
         <v>84</v>
       </c>
@@ -2083,7 +2106,9 @@
       <c r="E6" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G6" s="37" t="s">
         <v>84</v>
       </c>
@@ -2137,7 +2162,9 @@
       <c r="E7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>131</v>
+      </c>
       <c r="G7" s="37" t="s">
         <v>84</v>
       </c>
@@ -2191,7 +2218,9 @@
       <c r="E8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="G8" s="37" t="s">
         <v>84</v>
       </c>
@@ -2245,7 +2274,9 @@
       <c r="E9" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>132</v>
+      </c>
       <c r="G9" s="37" t="s">
         <v>84</v>
       </c>
@@ -2299,7 +2330,9 @@
       <c r="E10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>132</v>
+      </c>
       <c r="G10" s="37" t="s">
         <v>84</v>
       </c>
@@ -2353,7 +2386,9 @@
       <c r="E11" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="G11" s="37" t="s">
         <v>84</v>
       </c>
@@ -2391,7 +2426,7 @@
       <c r="U11" s="50"/>
       <c r="V11" s="49"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="33">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -2407,7 +2442,9 @@
       <c r="E12" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="G12" s="37" t="s">
         <v>84</v>
       </c>
@@ -2445,7 +2482,7 @@
       <c r="U12" s="50"/>
       <c r="V12" s="49"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="33">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -2461,7 +2498,9 @@
       <c r="E13" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="G13" s="37" t="s">
         <v>84</v>
       </c>
@@ -2499,7 +2538,7 @@
       <c r="U13" s="50"/>
       <c r="V13" s="49"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="33">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -2515,7 +2554,9 @@
       <c r="E14" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="G14" s="37" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2610,9 @@
       <c r="E15" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="G15" s="37" t="s">
         <v>84</v>
       </c>
@@ -6611,10 +6654,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>110</v>
@@ -6626,7 +6669,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>114</v>
@@ -6650,20 +6693,20 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>114</v>
@@ -6874,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6974,10 +7017,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>110</v>
@@ -6989,7 +7032,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>114</v>
@@ -7013,20 +7056,20 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>114</v>
@@ -7237,8 +7280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7337,10 +7380,10 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>110</v>
@@ -7352,7 +7395,7 @@
         <v>115</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>114</v>
@@ -7376,20 +7419,20 @@
         <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>114</v>
@@ -7601,7 +7644,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7694,80 +7737,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="89" customFormat="1" ht="66">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>113</v>
-      </c>
+    <row r="4" spans="1:13" s="89" customFormat="1" ht="16.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="69" customHeight="1">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>113</v>
-      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="16.5">

--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_极光组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_极光组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -358,10 +358,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>2016.12.30</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>取消超时的蘑菇宝月付申请</t>
@@ -526,6 +522,10 @@
   </si>
   <si>
     <t>Partner PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.12.19</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1883,7 +1883,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>84</v>
@@ -1911,7 +1911,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q2" s="43" t="s">
         <v>96</v>
@@ -1939,7 +1939,7 @@
         <v>83</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>84</v>
@@ -1967,7 +1967,7 @@
         <v>97</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="43" t="s">
         <v>96</v>
@@ -1995,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>84</v>
@@ -2023,7 +2023,7 @@
         <v>97</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="43" t="s">
         <v>96</v>
@@ -2051,7 +2051,7 @@
         <v>83</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>84</v>
@@ -2079,7 +2079,7 @@
         <v>97</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="43" t="s">
         <v>96</v>
@@ -2107,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="37" t="s">
         <v>84</v>
@@ -2135,7 +2135,7 @@
         <v>97</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="43" t="s">
         <v>96</v>
@@ -2163,7 +2163,7 @@
         <v>83</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>84</v>
@@ -2191,7 +2191,7 @@
         <v>97</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="43" t="s">
         <v>96</v>
@@ -2219,7 +2219,7 @@
         <v>83</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>84</v>
@@ -2247,7 +2247,7 @@
         <v>97</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="43" t="s">
         <v>96</v>
@@ -2275,7 +2275,7 @@
         <v>83</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>84</v>
@@ -2303,7 +2303,7 @@
         <v>97</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="43" t="s">
         <v>96</v>
@@ -2331,7 +2331,7 @@
         <v>83</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>84</v>
@@ -2359,7 +2359,7 @@
         <v>97</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="43" t="s">
         <v>96</v>
@@ -2387,7 +2387,7 @@
         <v>83</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>84</v>
@@ -2415,7 +2415,7 @@
         <v>97</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="43" t="s">
         <v>96</v>
@@ -2443,7 +2443,7 @@
         <v>83</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>84</v>
@@ -2471,7 +2471,7 @@
         <v>97</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="43" t="s">
         <v>96</v>
@@ -2499,7 +2499,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>84</v>
@@ -2527,7 +2527,7 @@
         <v>97</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="43" t="s">
         <v>96</v>
@@ -2555,7 +2555,7 @@
         <v>83</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>84</v>
@@ -2583,7 +2583,7 @@
         <v>97</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="43" t="s">
         <v>96</v>
@@ -2611,7 +2611,7 @@
         <v>83</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>84</v>
@@ -2639,7 +2639,7 @@
         <v>97</v>
       </c>
       <c r="P15" s="38" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="43" t="s">
         <v>96</v>
@@ -6204,7 +6204,7 @@
         <v>61</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>62</v>
@@ -6230,32 +6230,32 @@
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>108</v>
-      </c>
       <c r="I2" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="93" t="s">
         <v>119</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>120</v>
       </c>
       <c r="K2" s="96" t="s">
         <v>95</v>
@@ -6263,47 +6263,47 @@
       <c r="L2" s="94"/>
       <c r="M2" s="94"/>
       <c r="N2" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="99" t="s">
         <v>121</v>
-      </c>
-      <c r="O2" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q2" s="99" t="s">
-        <v>122</v>
       </c>
       <c r="R2" s="94"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>108</v>
-      </c>
       <c r="I3" s="94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" s="96" t="s">
         <v>95</v>
@@ -6311,16 +6311,16 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
       <c r="N3" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O3" s="100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P3" s="98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R3" s="94"/>
     </row>
@@ -6555,7 +6555,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6651,37 +6651,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -6690,35 +6690,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -6896,7 +6898,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6">
@@ -6918,7 +6920,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7014,37 +7016,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -7053,35 +7055,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -7262,7 +7266,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -7280,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G23:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -7377,37 +7381,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>129</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -7416,35 +7420,37 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="M5" s="11"/>
     </row>
@@ -7625,7 +7631,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
@@ -7644,7 +7650,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
